--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H2">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I2">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J2">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N2">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O2">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P2">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q2">
-        <v>402.4746861614438</v>
+        <v>729.2681190069118</v>
       </c>
       <c r="R2">
-        <v>1609.898744645775</v>
+        <v>2917.072476027647</v>
       </c>
       <c r="S2">
-        <v>0.0007093478359367373</v>
+        <v>0.0005833956175972045</v>
       </c>
       <c r="T2">
-        <v>0.0003515240530595683</v>
+        <v>0.0002787054408844958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H3">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I3">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J3">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P3">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q3">
-        <v>2375.032226121473</v>
+        <v>2447.834563486422</v>
       </c>
       <c r="R3">
-        <v>14250.19335672884</v>
+        <v>14687.00738091853</v>
       </c>
       <c r="S3">
-        <v>0.00418591287304834</v>
+        <v>0.001958204286902894</v>
       </c>
       <c r="T3">
-        <v>0.003111553283894288</v>
+        <v>0.001403238658282122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H4">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I4">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J4">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N4">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O4">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P4">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q4">
-        <v>4933.221939827461</v>
+        <v>7762.950720991578</v>
       </c>
       <c r="R4">
-        <v>29599.33163896477</v>
+        <v>46577.70432594947</v>
       </c>
       <c r="S4">
-        <v>0.008694634538601883</v>
+        <v>0.006210159627458804</v>
       </c>
       <c r="T4">
-        <v>0.006463063009514046</v>
+        <v>0.004450166982902346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H5">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I5">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J5">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N5">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O5">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P5">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q5">
-        <v>1816.671828718834</v>
+        <v>2567.823549630948</v>
       </c>
       <c r="R5">
-        <v>7266.687314875336</v>
+        <v>10271.29419852379</v>
       </c>
       <c r="S5">
-        <v>0.003201821815427233</v>
+        <v>0.002054192369820838</v>
       </c>
       <c r="T5">
-        <v>0.001586693191566887</v>
+        <v>0.0009813488014367747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H6">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I6">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J6">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N6">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O6">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P6">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q6">
-        <v>372.7079544636675</v>
+        <v>14248.65053056321</v>
       </c>
       <c r="R6">
-        <v>2236.247726782005</v>
+        <v>85491.90318337925</v>
       </c>
       <c r="S6">
-        <v>0.0006568849918406063</v>
+        <v>0.01139855158830257</v>
       </c>
       <c r="T6">
-        <v>0.0004882883890543193</v>
+        <v>0.008168140752274032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5638075</v>
+        <v>21.194154</v>
       </c>
       <c r="H7">
-        <v>41.12761500000001</v>
+        <v>42.38830799999999</v>
       </c>
       <c r="I7">
-        <v>0.02292499933614166</v>
+        <v>0.02540793187283288</v>
       </c>
       <c r="J7">
-        <v>0.01607194290719437</v>
+        <v>0.01757716018274786</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N7">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O7">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P7">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q7">
-        <v>3107.236204041773</v>
+        <v>4004.41504974558</v>
       </c>
       <c r="R7">
-        <v>18643.41722425064</v>
+        <v>24026.49029847348</v>
       </c>
       <c r="S7">
-        <v>0.005476397281286862</v>
+        <v>0.003203428382750572</v>
       </c>
       <c r="T7">
-        <v>0.004070820980105264</v>
+        <v>0.00229555954696809</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I8">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J8">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N8">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O8">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P8">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q8">
-        <v>14540.45698145962</v>
+        <v>25563.13759890012</v>
       </c>
       <c r="R8">
-        <v>87242.74188875771</v>
+        <v>153378.8255934007</v>
       </c>
       <c r="S8">
-        <v>0.02562705692549388</v>
+        <v>0.02044984835966937</v>
       </c>
       <c r="T8">
-        <v>0.01904959695804578</v>
+        <v>0.01465425132925281</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I9">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J9">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P9">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q9">
-        <v>85804.28807303168</v>
+        <v>85804.2880730317</v>
       </c>
       <c r="R9">
-        <v>772238.592657285</v>
+        <v>772238.5926572853</v>
       </c>
       <c r="S9">
-        <v>0.1512271160186277</v>
+        <v>0.068641209355239</v>
       </c>
       <c r="T9">
-        <v>0.1686195736984906</v>
+        <v>0.07378188207639559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I10">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J10">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N10">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O10">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P10">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q10">
-        <v>178225.6222874115</v>
+        <v>272115.799775292</v>
       </c>
       <c r="R10">
-        <v>1604030.600586703</v>
+        <v>2449042.197977628</v>
       </c>
       <c r="S10">
-        <v>0.3141165490028894</v>
+        <v>0.2176855959150453</v>
       </c>
       <c r="T10">
-        <v>0.3502427341005698</v>
+        <v>0.2339884905642022</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I11">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J11">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N11">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O11">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P11">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q11">
-        <v>65632.04962490458</v>
+        <v>90010.27882351445</v>
       </c>
       <c r="R11">
-        <v>393792.2977494275</v>
+        <v>540061.6729410867</v>
       </c>
       <c r="S11">
-        <v>0.1156742373378576</v>
+        <v>0.07200589308065326</v>
       </c>
       <c r="T11">
-        <v>0.08598519939772806</v>
+        <v>0.05159903564234835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I12">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J12">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N12">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O12">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P12">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q12">
-        <v>13465.05548016731</v>
+        <v>499459.9443171002</v>
       </c>
       <c r="R12">
-        <v>121185.4993215058</v>
+        <v>4495139.498853901</v>
       </c>
       <c r="S12">
-        <v>0.02373169864847961</v>
+        <v>0.3995550265884836</v>
       </c>
       <c r="T12">
-        <v>0.02646105417202275</v>
+        <v>0.4294784741075161</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2228.764953</v>
       </c>
       <c r="I13">
-        <v>0.828225918569811</v>
+        <v>0.890627797432279</v>
       </c>
       <c r="J13">
-        <v>0.8709618361816444</v>
+        <v>0.9242019895810776</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N13">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O13">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P13">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q13">
-        <v>112257.0832640641</v>
+        <v>140367.3220476851</v>
       </c>
       <c r="R13">
-        <v>1010313.749376577</v>
+        <v>1263305.898429166</v>
       </c>
       <c r="S13">
-        <v>0.1978492606364627</v>
+        <v>0.1122902241331886</v>
       </c>
       <c r="T13">
-        <v>0.2206036778547874</v>
+        <v>0.1206998558613624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H14">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I14">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N14">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O14">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P14">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q14">
-        <v>12.3577756364925</v>
+        <v>2.026559693130666</v>
       </c>
       <c r="R14">
-        <v>74.146653818955</v>
+        <v>12.159358158784</v>
       </c>
       <c r="S14">
-        <v>2.178015588593172E-05</v>
+        <v>1.621195295608913E-06</v>
       </c>
       <c r="T14">
-        <v>1.619004447200727E-05</v>
+        <v>1.161739827983714E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H15">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I15">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>346.487229</v>
       </c>
       <c r="O15">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P15">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q15">
-        <v>72.92412762594299</v>
+        <v>6.802275778308999</v>
       </c>
       <c r="R15">
-        <v>656.3171486334869</v>
+        <v>61.220482004781</v>
       </c>
       <c r="S15">
-        <v>0.0001285262748134359</v>
+        <v>5.441644541046326E-06</v>
       </c>
       <c r="T15">
-        <v>0.0001433079347054871</v>
+        <v>5.849179809045688E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H16">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I16">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N16">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O16">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P16">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q16">
-        <v>151.472010522808</v>
+        <v>21.57242668491322</v>
       </c>
       <c r="R16">
-        <v>1363.248094705272</v>
+        <v>194.151840164219</v>
       </c>
       <c r="S16">
-        <v>0.0002669642254873164</v>
+        <v>1.725738293078473E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002976674757777841</v>
+        <v>1.854982166407851E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H17">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I17">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N17">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O17">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P17">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q17">
-        <v>55.7799624084645</v>
+        <v>7.135712598872666</v>
       </c>
       <c r="R17">
-        <v>334.679774450787</v>
+        <v>42.814275593236</v>
       </c>
       <c r="S17">
-        <v>9.831027138736687E-05</v>
+        <v>5.708385366255147E-06</v>
       </c>
       <c r="T17">
-        <v>7.30778821856208E-05</v>
+        <v>4.090598246503784E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H18">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I18">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N18">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O18">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P18">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q18">
-        <v>11.443803641729</v>
+        <v>39.59550691186955</v>
       </c>
       <c r="R18">
-        <v>102.994232775561</v>
+        <v>356.359562206826</v>
       </c>
       <c r="S18">
-        <v>2.016931157973302E-05</v>
+        <v>3.167538057248542E-05</v>
       </c>
       <c r="T18">
-        <v>2.248896104021248E-05</v>
+        <v>3.40476109916571E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.631401</v>
+        <v>0.05889633333333333</v>
       </c>
       <c r="H19">
-        <v>1.894203</v>
+        <v>0.176689</v>
       </c>
       <c r="I19">
-        <v>0.0007039001656594569</v>
+        <v>7.060598054034096E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007402209554489433</v>
+        <v>7.326762973246153E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N19">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O19">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P19">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q19">
-        <v>95.40606944838299</v>
+        <v>11.12784985778778</v>
       </c>
       <c r="R19">
-        <v>858.6546250354469</v>
+        <v>100.15064872009</v>
       </c>
       <c r="S19">
-        <v>0.0001681499265056729</v>
+        <v>8.901991834160429E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001874886572678316</v>
+        <v>9.568679193192728E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H20">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I20">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J20">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N20">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O20">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P20">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q20">
-        <v>2181.834083197789</v>
+        <v>2398.81179180136</v>
       </c>
       <c r="R20">
-        <v>8727.336332791156</v>
+        <v>9595.24716720544</v>
       </c>
       <c r="S20">
-        <v>0.0038454077697412</v>
+        <v>0.001918987338543107</v>
       </c>
       <c r="T20">
-        <v>0.001905628319992135</v>
+        <v>0.0009167573360307402</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H21">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I21">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J21">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>346.487229</v>
       </c>
       <c r="O21">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P21">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q21">
-        <v>12875.16069412209</v>
+        <v>8051.763490314474</v>
       </c>
       <c r="R21">
-        <v>77250.96416473256</v>
+        <v>48310.58094188684</v>
       </c>
       <c r="S21">
-        <v>0.02269202931199941</v>
+        <v>0.006441202366799357</v>
       </c>
       <c r="T21">
-        <v>0.01686787576936789</v>
+        <v>0.004615730967072166</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H22">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I22">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J22">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N22">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O22">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P22">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q22">
-        <v>26743.22668824229</v>
+        <v>25534.99493992137</v>
       </c>
       <c r="R22">
-        <v>160459.3601294538</v>
+        <v>153209.9696395282</v>
       </c>
       <c r="S22">
-        <v>0.04713402017452788</v>
+        <v>0.0204273349609785</v>
       </c>
       <c r="T22">
-        <v>0.03503656662361166</v>
+        <v>0.01463811834885662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H23">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I23">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J23">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N23">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O23">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P23">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q23">
-        <v>9848.262885020467</v>
+        <v>8446.448226076316</v>
       </c>
       <c r="R23">
-        <v>39393.05154008187</v>
+        <v>33785.79290430526</v>
       </c>
       <c r="S23">
-        <v>0.01735722569747689</v>
+        <v>0.006756939938722184</v>
       </c>
       <c r="T23">
-        <v>0.008601537945046926</v>
+        <v>0.003227991208449297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H24">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I24">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J24">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N24">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O24">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P24">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q24">
-        <v>2020.467239526134</v>
+        <v>46868.67562031432</v>
       </c>
       <c r="R24">
-        <v>12122.8034371568</v>
+        <v>281212.0537218859</v>
       </c>
       <c r="S24">
-        <v>0.003561004240063024</v>
+        <v>0.03749372726825203</v>
       </c>
       <c r="T24">
-        <v>0.002647034177054079</v>
+        <v>0.02686780327149126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.4773615</v>
+        <v>69.71480750000001</v>
       </c>
       <c r="H25">
-        <v>222.954723</v>
+        <v>139.429615</v>
       </c>
       <c r="I25">
-        <v>0.1242774927932157</v>
+        <v>0.08357536137029385</v>
       </c>
       <c r="J25">
-        <v>0.08712675361664748</v>
+        <v>0.05781728011115387</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N25">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O25">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P25">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q25">
-        <v>16844.47267773015</v>
+        <v>13171.88807550969</v>
       </c>
       <c r="R25">
-        <v>101066.8360663809</v>
+        <v>79031.32845305816</v>
       </c>
       <c r="S25">
-        <v>0.02968780559940724</v>
+        <v>0.01053716949699868</v>
       </c>
       <c r="T25">
-        <v>0.0220681107815748</v>
+        <v>0.00755087897925379</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H26">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I26">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J26">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N26">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O26">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P26">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q26">
-        <v>398.026125580135</v>
+        <v>3.919165429557333</v>
       </c>
       <c r="R26">
-        <v>2388.15675348081</v>
+        <v>23.514992577344</v>
       </c>
       <c r="S26">
-        <v>0.000701507400426418</v>
+        <v>3.1352308933452E-06</v>
       </c>
       <c r="T26">
-        <v>0.0005214579762343177</v>
+        <v>2.246689592913011E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H27">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I27">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J27">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>346.487229</v>
       </c>
       <c r="O27">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P27">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q27">
-        <v>2348.780948454226</v>
+        <v>13.154926629119</v>
       </c>
       <c r="R27">
-        <v>21139.02853608803</v>
+        <v>118.394339662071</v>
       </c>
       <c r="S27">
-        <v>0.004139645896157361</v>
+        <v>1.052360077894486E-05</v>
       </c>
       <c r="T27">
-        <v>0.004615741836846109</v>
+        <v>1.131173356332937E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H28">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I28">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J28">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N28">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O28">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P28">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q28">
-        <v>4878.694941198879</v>
+        <v>41.71893341299211</v>
       </c>
       <c r="R28">
-        <v>43908.25447078991</v>
+        <v>375.470400716929</v>
       </c>
       <c r="S28">
-        <v>0.008598532572920011</v>
+        <v>3.337406680702371E-05</v>
       </c>
       <c r="T28">
-        <v>0.009587439971412044</v>
+        <v>3.587351511862065E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H29">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I29">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J29">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N29">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O29">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P29">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q29">
-        <v>1796.592119449439</v>
+        <v>13.79976036607933</v>
       </c>
       <c r="R29">
-        <v>10779.55271669663</v>
+        <v>82.798562196476</v>
       </c>
       <c r="S29">
-        <v>0.003166432016251713</v>
+        <v>1.103945107654703E-05</v>
       </c>
       <c r="T29">
-        <v>0.002353733161010838</v>
+        <v>7.910811257249157E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H30">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I30">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J30">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N30">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O30">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P30">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q30">
-        <v>368.5884061502558</v>
+        <v>76.57378284035177</v>
       </c>
       <c r="R30">
-        <v>3317.295655352302</v>
+        <v>689.1640455631659</v>
       </c>
       <c r="S30">
-        <v>0.0006496244291726147</v>
+        <v>6.125704410709039E-05</v>
       </c>
       <c r="T30">
-        <v>0.0007243369919037461</v>
+        <v>6.584470243330506E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>20.33651533333333</v>
+        <v>0.1138996666666667</v>
       </c>
       <c r="H31">
-        <v>61.009546</v>
+        <v>0.341699</v>
       </c>
       <c r="I31">
-        <v>0.02267160886990901</v>
+        <v>0.0001365449628706596</v>
       </c>
       <c r="J31">
-        <v>0.02384144911164551</v>
+        <v>0.000141692328395952</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N31">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O31">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P31">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q31">
-        <v>3072.891861479639</v>
+        <v>21.52015783979889</v>
       </c>
       <c r="R31">
-        <v>27656.02675331675</v>
+        <v>193.68142055819</v>
       </c>
       <c r="S31">
-        <v>0.005415866554980893</v>
+        <v>1.721556920770837E-05</v>
       </c>
       <c r="T31">
-        <v>0.006038739174238457</v>
+        <v>1.850487643053479E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H32">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I32">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J32">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>19.5719925</v>
+        <v>34.408928</v>
       </c>
       <c r="N32">
-        <v>39.143985</v>
+        <v>68.81785599999999</v>
       </c>
       <c r="O32">
-        <v>0.03094210933382397</v>
+        <v>0.02296116112547488</v>
       </c>
       <c r="P32">
-        <v>0.0218719077767638</v>
+        <v>0.01585611315973826</v>
       </c>
       <c r="Q32">
-        <v>20.9985624133375</v>
+        <v>5.216898149077332</v>
       </c>
       <c r="R32">
-        <v>125.991374480025</v>
+        <v>31.30138889446399</v>
       </c>
       <c r="S32">
-        <v>3.700924633980224E-05</v>
+        <v>4.173383476254552E-06</v>
       </c>
       <c r="T32">
-        <v>2.751042495999282E-05</v>
+        <v>2.990624149321261E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H33">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I33">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J33">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>346.487229</v>
       </c>
       <c r="O33">
-        <v>0.1825916246134487</v>
+        <v>0.07707058947984194</v>
       </c>
       <c r="P33">
-        <v>0.1936015640337701</v>
+        <v>0.07983306994376788</v>
       </c>
       <c r="Q33">
-        <v>123.914035214365</v>
+        <v>17.510848576364</v>
       </c>
       <c r="R33">
-        <v>1115.226316929285</v>
+        <v>157.597637187276</v>
       </c>
       <c r="S33">
-        <v>0.0002183942388024873</v>
+        <v>1.400822558069645E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002435115104657931</v>
+        <v>1.505732864561788E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H34">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I34">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J34">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>239.8982746666667</v>
+        <v>366.2779236666667</v>
       </c>
       <c r="N34">
-        <v>719.694824</v>
+        <v>1098.833771</v>
       </c>
       <c r="O34">
-        <v>0.3792643310961689</v>
+        <v>0.2444181469999509</v>
       </c>
       <c r="P34">
-        <v>0.4021332732970915</v>
+        <v>0.253178951357013</v>
       </c>
       <c r="Q34">
-        <v>257.3840600766623</v>
+        <v>55.53310530408044</v>
       </c>
       <c r="R34">
-        <v>2316.45654068996</v>
+        <v>499.797947736724</v>
       </c>
       <c r="S34">
-        <v>0.0004536305817423651</v>
+        <v>4.442504673052567E-05</v>
       </c>
       <c r="T34">
-        <v>0.0005058021162062892</v>
+        <v>4.775212426906105E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H35">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I35">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J35">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>88.3431645</v>
+        <v>121.157162</v>
       </c>
       <c r="N35">
-        <v>176.686329</v>
+        <v>242.314324</v>
       </c>
       <c r="O35">
-        <v>0.139665077781682</v>
+        <v>0.08084846811232432</v>
       </c>
       <c r="P35">
-        <v>0.09872441687536275</v>
+        <v>0.05583090733848903</v>
       </c>
       <c r="Q35">
-        <v>94.78235052179751</v>
+        <v>18.36920273090933</v>
       </c>
       <c r="R35">
-        <v>568.694103130785</v>
+        <v>110.215216385456</v>
       </c>
       <c r="S35">
-        <v>0.0001670506432811157</v>
+        <v>1.469488668524332E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001241752978244577</v>
+        <v>1.053027675086036E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H36">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I36">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J36">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.12446233333333</v>
+        <v>672.2915446666666</v>
       </c>
       <c r="N36">
-        <v>54.373387</v>
+        <v>2016.874634</v>
       </c>
       <c r="O36">
-        <v>0.02865365369084289</v>
+        <v>0.4486217786379665</v>
       </c>
       <c r="P36">
-        <v>0.03038141635232814</v>
+        <v>0.4647019579585521</v>
       </c>
       <c r="Q36">
-        <v>19.44552418537278</v>
+        <v>101.9292584474551</v>
       </c>
       <c r="R36">
-        <v>175.009717668355</v>
+        <v>917.3633260270958</v>
       </c>
       <c r="S36">
-        <v>3.427206970730242E-05</v>
+        <v>8.154076824879623E-05</v>
       </c>
       <c r="T36">
-        <v>3.82136612530418E-05</v>
+        <v>8.764751384573618E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.072888333333333</v>
+        <v>0.1516146666666666</v>
       </c>
       <c r="H37">
-        <v>3.218665</v>
+        <v>0.454844</v>
       </c>
       <c r="I37">
-        <v>0.001196080265263172</v>
+        <v>0.0001817583811832703</v>
       </c>
       <c r="J37">
-        <v>0.001257797227419698</v>
+        <v>0.0001886101668922895</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>151.102183</v>
+        <v>188.9396033333333</v>
       </c>
       <c r="N37">
-        <v>453.306549</v>
+        <v>566.81881</v>
       </c>
       <c r="O37">
-        <v>0.2388832034840335</v>
+        <v>0.1260798556444414</v>
       </c>
       <c r="P37">
-        <v>0.2532874216646838</v>
+        <v>0.1305990002424397</v>
       </c>
       <c r="Q37">
-        <v>162.1157692818983</v>
+        <v>28.64601497951555</v>
       </c>
       <c r="R37">
-        <v>1459.041923537085</v>
+        <v>257.81413481564</v>
       </c>
       <c r="S37">
-        <v>0.000285723485390099</v>
+        <v>2.291607046175408E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003185842167101231</v>
+        <v>2.463229923169271E-05</v>
       </c>
     </row>
   </sheetData>
